--- a/Raw_Data/Gender_Age_Data/Gender/Profession_Gender_2016.xlsx
+++ b/Raw_Data/Gender_Age_Data/Gender/Profession_Gender_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliott\LearnPython\Project\Project1_Datasets\Gender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliott\Documents\GitHub\Project1\Raw_Data\Gender_Age_Data\Gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1758,10 +1758,10 @@
     <t>Healthcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Occupation </t>
-  </si>
-  <si>
     <t>Total employed</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2183,7 @@
         <v>567</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>568</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2" s="6">
         <v>111091</v>
